--- a/Test/MultiPSO/No_exploitation/ALLCONError_200.xlsx
+++ b/Test/MultiPSO/No_exploitation/ALLCONError_200.xlsx
@@ -423,34 +423,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.007069038403712214</v>
+        <v>0.006218487634656088</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0005781741365631356</v>
+        <v>0.00137463289112649</v>
       </c>
       <c r="C1" t="n">
-        <v>0.0009295791775072597</v>
+        <v>0.001193936322531288</v>
       </c>
       <c r="D1" t="n">
-        <v>0.001634623869719924</v>
+        <v>0.001184132848284682</v>
       </c>
       <c r="E1" t="n">
-        <v>0.002218486997286415</v>
+        <v>0.002630059041493315</v>
       </c>
       <c r="F1" t="n">
-        <v>0.004987780601980327</v>
+        <v>0.002198108077618659</v>
       </c>
       <c r="G1" t="n">
-        <v>0.004561233032952671</v>
+        <v>0.001354064334347636</v>
       </c>
       <c r="H1" t="n">
-        <v>0.001847758420302959</v>
+        <v>0.002016728977327436</v>
       </c>
       <c r="I1" t="n">
-        <v>0.001953370333013388</v>
+        <v>0.00642509229767961</v>
       </c>
       <c r="J1" t="n">
-        <v>0.003098312121694715</v>
+        <v>0.005290103936305475</v>
       </c>
     </row>
   </sheetData>
